--- a/checklists/checklist.xlsx
+++ b/checklists/checklist.xlsx
@@ -1362,7 +1362,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IOT-DES-INVAL-001</t>
+          <t>IOT-DES-INPV-001</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IOT-DES-INVAL-002</t>
+          <t>IOT-DES-INPV-002</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IOT-INT-INVAL-001</t>
+          <t>IOT-INT-INPV-001</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IOT-INT-INVAL-002</t>
+          <t>IOT-INT-INPV-002</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1890,7 +1890,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IOT-PHY-INVAL-001</t>
+          <t>IOT-PHY-INPV-001</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IOT-PHY-INVAL-002</t>
+          <t>IOT-PHY-INPV-002</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2154,7 +2154,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IOT-WRLS-INVAL-001</t>
+          <t>IOT-WRLS-INPV-001</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IOT-WRLS-INVAL-002</t>
+          <t>IOT-WRLS-INPV-002</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IOT-UI-INVAL-001</t>
+          <t>IOT-UI-INPV-001</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IOT-UI-INVAL-002</t>
+          <t>IOT-UI-INPV-002</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">

--- a/checklists/checklist.xlsx
+++ b/checklists/checklist.xlsx
@@ -504,7 +504,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IOT-PROC-AUTHZ-001</t>
+          <t>ISTG-PROC-AUTHZ-001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -526,7 +526,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IOT-PROC-AUTHZ-002</t>
+          <t>ISTG-PROC-AUTHZ-002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -548,7 +548,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IOT-PROC-LOGIC-001</t>
+          <t>ISTG-PROC-LOGIC-001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -570,7 +570,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IOT-PROC-SIDEC-001</t>
+          <t>ISTG-PROC-SIDEC-001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -592,7 +592,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IOT-MEM-INFO-001</t>
+          <t>ISTG-MEM-INFO-001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -607,14 +607,14 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Disclosure of Source Code</t>
+          <t>Disclosure of Source Code and Binaries</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IOT-MEM-INFO-002</t>
+          <t>ISTG-MEM-INFO-002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -636,7 +636,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IOT-MEM-INFO-003</t>
+          <t>ISTG-MEM-INFO-003</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -658,7 +658,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IOT-MEM-INFO-004</t>
+          <t>ISTG-MEM-INFO-004</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -680,7 +680,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IOT-MEM-SCRT-001</t>
+          <t>ISTG-MEM-SCRT-001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -702,7 +702,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IOT-MEM-CRYPT-001</t>
+          <t>ISTG-MEM-CRYPT-001</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -724,7 +724,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IOT-FW-INFO-001</t>
+          <t>ISTG-FW-INFO-001</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -739,14 +739,14 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Disclosure of Source Code</t>
+          <t>Disclosure of Source Code and Binaries</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IOT-FW-INFO-002</t>
+          <t>ISTG-FW-INFO-002</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -768,7 +768,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IOT-FW-INFO-003</t>
+          <t>ISTG-FW-INFO-003</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -790,7 +790,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IOT-FW-CONF-001</t>
+          <t>ISTG-FW-CONF-001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -812,7 +812,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IOT-FW-CONF-002</t>
+          <t>ISTG-FW-CONF-002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IOT-FW-SCRT-001</t>
+          <t>ISTG-FW-SCRT-001</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -856,7 +856,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IOT-FW-SCRT-002</t>
+          <t>ISTG-FW-SCRT-002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IOT-FW-SCRT-003</t>
+          <t>ISTG-FW-SCRT-003</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -900,7 +900,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>IOT-FW-CRYPT-001</t>
+          <t>ISTG-FW-CRYPT-001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -922,7 +922,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IOT-FW[INST]-AUTHZ-001</t>
+          <t>ISTG-FW[INST]-AUTHZ-001</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IOT-FW[INST]-AUTHZ-002</t>
+          <t>ISTG-FW[INST]-AUTHZ-002</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -966,7 +966,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IOT-FW[INST]-INFO-001</t>
+          <t>ISTG-FW[INST]-INFO-001</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -988,7 +988,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IOT-FW[INST]-CRYPT-001</t>
+          <t>ISTG-FW[INST]-CRYPT-001</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1010,7 +1010,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IOT-FW[UPDT]-AUTHZ-001</t>
+          <t>ISTG-FW[UPDT]-AUTHZ-001</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1032,7 +1032,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IOT-FW[UPDT]-CRYPT-001</t>
+          <t>ISTG-FW[UPDT]-CRYPT-001</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IOT-FW[UPDT]-CRYPT-002</t>
+          <t>ISTG-FW[UPDT]-CRYPT-002</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1076,7 +1076,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IOT-FW[UPDT]-CRYPT-003</t>
+          <t>ISTG-FW[UPDT]-CRYPT-003</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1098,7 +1098,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IOT-FW[UPDT]-CRYPT-004</t>
+          <t>ISTG-FW[UPDT]-CRYPT-004</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1120,7 +1120,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IOT-FW[UPDT]-LOGIC-001</t>
+          <t>ISTG-FW[UPDT]-LOGIC-001</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1142,7 +1142,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IOT-DES-AUTHZ-001</t>
+          <t>ISTG-DES-AUTHZ-001</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1164,7 +1164,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IOT-DES-AUTHZ-002</t>
+          <t>ISTG-DES-AUTHZ-002</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1186,7 +1186,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>IOT-DES-INFO-001</t>
+          <t>ISTG-DES-INFO-001</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1208,7 +1208,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IOT-DES-INFO-002</t>
+          <t>ISTG-DES-INFO-002</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1230,7 +1230,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>IOT-DES-INFO-003</t>
+          <t>ISTG-DES-INFO-003</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1252,7 +1252,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IOT-DES-CONF-001</t>
+          <t>ISTG-DES-CONF-001</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1274,7 +1274,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IOT-DES-CONF-002</t>
+          <t>ISTG-DES-CONF-002</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IOT-DES-SCRT-001</t>
+          <t>ISTG-DES-SCRT-001</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1318,7 +1318,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IOT-DES-CRYPT-001</t>
+          <t>ISTG-DES-CRYPT-001</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1340,7 +1340,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IOT-DES-LOGIC-001</t>
+          <t>ISTG-DES-LOGIC-001</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1362,7 +1362,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IOT-DES-INPV-001</t>
+          <t>ISTG-DES-INPV-001</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1384,7 +1384,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>IOT-DES-INPV-002</t>
+          <t>ISTG-DES-INPV-002</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1406,7 +1406,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IOT-INT-AUTHZ-001</t>
+          <t>ISTG-INT-AUTHZ-001</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1428,7 +1428,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IOT-INT-AUTHZ-002</t>
+          <t>ISTG-INT-AUTHZ-002</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1450,7 +1450,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>IOT-INT-INFO-001</t>
+          <t>ISTG-INT-INFO-001</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -1472,7 +1472,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IOT-INT-INFO-002</t>
+          <t>ISTG-INT-INFO-002</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1494,7 +1494,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IOT-INT-INFO-003</t>
+          <t>ISTG-INT-INFO-003</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1516,7 +1516,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IOT-INT-CONF-001</t>
+          <t>ISTG-INT-CONF-001</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1538,7 +1538,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>IOT-INT-CONF-002</t>
+          <t>ISTG-INT-CONF-002</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>IOT-INT-SCRT-001</t>
+          <t>ISTG-INT-SCRT-001</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1582,7 +1582,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IOT-INT-CRYPT-001</t>
+          <t>ISTG-INT-CRYPT-001</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -1604,7 +1604,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IOT-INT-LOGIC-001</t>
+          <t>ISTG-INT-LOGIC-001</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1626,7 +1626,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IOT-INT-INPV-001</t>
+          <t>ISTG-INT-INPV-001</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -1648,7 +1648,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>IOT-INT-INPV-002</t>
+          <t>ISTG-INT-INPV-002</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1670,7 +1670,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>IOT-PHY-AUTHZ-001</t>
+          <t>ISTG-PHY-AUTHZ-001</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -1692,7 +1692,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IOT-PHY-AUTHZ-002</t>
+          <t>ISTG-PHY-AUTHZ-002</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1714,7 +1714,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>IOT-PHY-INFO-001</t>
+          <t>ISTG-PHY-INFO-001</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -1736,7 +1736,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IOT-PHY-INFO-002</t>
+          <t>ISTG-PHY-INFO-002</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1758,7 +1758,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IOT-PHY-INFO-003</t>
+          <t>ISTG-PHY-INFO-003</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1780,7 +1780,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IOT-PHY-CONF-001</t>
+          <t>ISTG-PHY-CONF-001</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1802,7 +1802,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IOT-PHY-CONF-002</t>
+          <t>ISTG-PHY-CONF-002</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1824,7 +1824,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>IOT-PHY-SCRT-001</t>
+          <t>ISTG-PHY-SCRT-001</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>IOT-PHY-CRYPT-001</t>
+          <t>ISTG-PHY-CRYPT-001</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -1868,7 +1868,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>IOT-PHY-LOGIC-001</t>
+          <t>ISTG-PHY-LOGIC-001</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1890,7 +1890,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>IOT-PHY-INPV-001</t>
+          <t>ISTG-PHY-INPV-001</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1912,7 +1912,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>IOT-PHY-INPV-002</t>
+          <t>ISTG-PHY-INPV-002</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1934,7 +1934,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>IOT-WRLS-AUTHZ-001</t>
+          <t>ISTG-WRLS-AUTHZ-001</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -1956,7 +1956,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>IOT-WRLS-AUTHZ-002</t>
+          <t>ISTG-WRLS-AUTHZ-002</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1978,7 +1978,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>IOT-WRLS-INFO-001</t>
+          <t>ISTG-WRLS-INFO-001</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2000,7 +2000,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IOT-WRLS-INFO-002</t>
+          <t>ISTG-WRLS-INFO-002</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2022,7 +2022,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>IOT-WRLS-INFO-003</t>
+          <t>ISTG-WRLS-INFO-003</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>IOT-WRLS-CONF-001</t>
+          <t>ISTG-WRLS-CONF-001</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2066,7 +2066,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IOT-WRLS-CONF-002</t>
+          <t>ISTG-WRLS-CONF-002</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2088,7 +2088,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IOT-WRLS-SCRT-001</t>
+          <t>ISTG-WRLS-SCRT-001</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2110,7 +2110,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>IOT-WRLS-CRYPT-001</t>
+          <t>ISTG-WRLS-CRYPT-001</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2132,7 +2132,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>IOT-WRLS-LOGIC-001</t>
+          <t>ISTG-WRLS-LOGIC-001</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2154,7 +2154,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>IOT-WRLS-INPV-001</t>
+          <t>ISTG-WRLS-INPV-001</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2176,7 +2176,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IOT-WRLS-INPV-002</t>
+          <t>ISTG-WRLS-INPV-002</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2198,7 +2198,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IOT-UI-AUTHZ-001</t>
+          <t>ISTG-UI-AUTHZ-001</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2220,7 +2220,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IOT-UI-AUTHZ-002</t>
+          <t>ISTG-UI-AUTHZ-002</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2242,7 +2242,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>IOT-UI-INFO-001</t>
+          <t>ISTG-UI-INFO-001</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2264,7 +2264,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>IOT-UI-INFO-002</t>
+          <t>ISTG-UI-INFO-002</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -2286,7 +2286,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IOT-UI-INFO-003</t>
+          <t>ISTG-UI-INFO-003</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -2308,7 +2308,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IOT-UI-CONF-001</t>
+          <t>ISTG-UI-CONF-001</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -2330,7 +2330,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IOT-UI-CONF-002</t>
+          <t>ISTG-UI-CONF-002</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -2352,7 +2352,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IOT-UI-SCRT-001</t>
+          <t>ISTG-UI-SCRT-001</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -2374,7 +2374,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>IOT-UI-CRYPT-001</t>
+          <t>ISTG-UI-CRYPT-001</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -2396,7 +2396,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>IOT-UI-LOGIC-001</t>
+          <t>ISTG-UI-LOGIC-001</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -2418,7 +2418,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IOT-UI-INPV-001</t>
+          <t>ISTG-UI-INPV-001</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -2440,7 +2440,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>IOT-UI-INPV-002</t>
+          <t>ISTG-UI-INPV-002</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">

--- a/checklists/checklist.xlsx
+++ b/checklists/checklist.xlsx
@@ -2472,7 +2472,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="0" type="list">
+    <dataValidation sqref="E2:E1048576" showDropDown="0" showInputMessage="1" showErrorMessage="1" allowBlank="1" type="list">
       <formula1>"Pass,Fail,N/A"</formula1>
     </dataValidation>
   </dataValidations>
